--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_135.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_135.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g580458-d78009-Reviews-Comfort_Suites-Stevenson_Ranch_Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>285</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Suites-Stevenson-Ranch.h67666.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528213276100&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=4e931507-281e-4646-abf6-279058f8d26f&amp;mctc=9&amp;exp_dp=152.1&amp;exp_ts=1528213276880&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_135.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_135.xlsx
@@ -4522,7 +4522,7 @@
         <v>34672</v>
       </c>
       <c r="B2" t="n">
-        <v>131451</v>
+        <v>162215</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4652,7 +4652,7 @@
         <v>34672</v>
       </c>
       <c r="B4" t="n">
-        <v>131452</v>
+        <v>162216</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -4713,7 +4713,7 @@
         <v>34672</v>
       </c>
       <c r="B5" t="n">
-        <v>131453</v>
+        <v>162217</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -4780,7 +4780,7 @@
         <v>34672</v>
       </c>
       <c r="B6" t="n">
-        <v>131454</v>
+        <v>162218</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -4841,7 +4841,7 @@
         <v>34672</v>
       </c>
       <c r="B7" t="n">
-        <v>131455</v>
+        <v>162219</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -4898,7 +4898,7 @@
         <v>34672</v>
       </c>
       <c r="B8" t="n">
-        <v>131456</v>
+        <v>162220</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -5024,7 +5024,7 @@
         <v>34672</v>
       </c>
       <c r="B10" t="n">
-        <v>131458</v>
+        <v>162221</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -5158,7 +5158,7 @@
         <v>34672</v>
       </c>
       <c r="B12" t="n">
-        <v>131459</v>
+        <v>162222</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -5284,7 +5284,7 @@
         <v>34672</v>
       </c>
       <c r="B14" t="n">
-        <v>131460</v>
+        <v>162223</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -5471,7 +5471,7 @@
         <v>34672</v>
       </c>
       <c r="B17" t="n">
-        <v>131461</v>
+        <v>131478</v>
       </c>
       <c r="C17" t="s">
         <v>159</v>
@@ -5666,7 +5666,7 @@
         <v>34672</v>
       </c>
       <c r="B20" t="n">
-        <v>131462</v>
+        <v>162224</v>
       </c>
       <c r="C20" t="s">
         <v>179</v>
@@ -5727,7 +5727,7 @@
         <v>34672</v>
       </c>
       <c r="B21" t="n">
-        <v>131456</v>
+        <v>131457</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -5794,7 +5794,7 @@
         <v>34672</v>
       </c>
       <c r="B22" t="n">
-        <v>131463</v>
+        <v>162225</v>
       </c>
       <c r="C22" t="s">
         <v>192</v>
@@ -5855,7 +5855,7 @@
         <v>34672</v>
       </c>
       <c r="B23" t="n">
-        <v>131464</v>
+        <v>162226</v>
       </c>
       <c r="C23" t="s">
         <v>198</v>
@@ -5989,7 +5989,7 @@
         <v>34672</v>
       </c>
       <c r="B25" t="n">
-        <v>131465</v>
+        <v>162227</v>
       </c>
       <c r="C25" t="s">
         <v>213</v>
@@ -6054,7 +6054,7 @@
         <v>34672</v>
       </c>
       <c r="B26" t="n">
-        <v>131466</v>
+        <v>162228</v>
       </c>
       <c r="C26" t="s">
         <v>220</v>
@@ -6115,7 +6115,7 @@
         <v>34672</v>
       </c>
       <c r="B27" t="n">
-        <v>131467</v>
+        <v>162229</v>
       </c>
       <c r="C27" t="s">
         <v>229</v>
@@ -6176,7 +6176,7 @@
         <v>34672</v>
       </c>
       <c r="B28" t="n">
-        <v>131468</v>
+        <v>162230</v>
       </c>
       <c r="C28" t="s">
         <v>235</v>
@@ -6243,7 +6243,7 @@
         <v>34672</v>
       </c>
       <c r="B29" t="n">
-        <v>131469</v>
+        <v>162231</v>
       </c>
       <c r="C29" t="s">
         <v>241</v>
@@ -6310,7 +6310,7 @@
         <v>34672</v>
       </c>
       <c r="B30" t="n">
-        <v>131470</v>
+        <v>162232</v>
       </c>
       <c r="C30" t="s">
         <v>248</v>
@@ -6377,7 +6377,7 @@
         <v>34672</v>
       </c>
       <c r="B31" t="n">
-        <v>131471</v>
+        <v>162233</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -6448,7 +6448,7 @@
         <v>34672</v>
       </c>
       <c r="B32" t="n">
-        <v>131472</v>
+        <v>162234</v>
       </c>
       <c r="C32" t="s">
         <v>262</v>
@@ -6631,7 +6631,7 @@
         <v>34672</v>
       </c>
       <c r="B35" t="n">
-        <v>131473</v>
+        <v>162235</v>
       </c>
       <c r="C35" t="s">
         <v>282</v>
@@ -6765,7 +6765,7 @@
         <v>34672</v>
       </c>
       <c r="B37" t="n">
-        <v>131474</v>
+        <v>162236</v>
       </c>
       <c r="C37" t="s">
         <v>297</v>
@@ -6826,7 +6826,7 @@
         <v>34672</v>
       </c>
       <c r="B38" t="n">
-        <v>131475</v>
+        <v>162237</v>
       </c>
       <c r="C38" t="s">
         <v>303</v>
@@ -6893,7 +6893,7 @@
         <v>34672</v>
       </c>
       <c r="B39" t="n">
-        <v>131476</v>
+        <v>162238</v>
       </c>
       <c r="C39" t="s">
         <v>309</v>
@@ -6960,7 +6960,7 @@
         <v>34672</v>
       </c>
       <c r="B40" t="n">
-        <v>131477</v>
+        <v>162239</v>
       </c>
       <c r="C40" t="s">
         <v>315</v>
@@ -7082,7 +7082,7 @@
         <v>34672</v>
       </c>
       <c r="B42" t="n">
-        <v>131478</v>
+        <v>162240</v>
       </c>
       <c r="C42" t="s">
         <v>329</v>
@@ -7143,7 +7143,7 @@
         <v>34672</v>
       </c>
       <c r="B43" t="n">
-        <v>131479</v>
+        <v>135052</v>
       </c>
       <c r="C43" t="s">
         <v>336</v>
@@ -7204,7 +7204,7 @@
         <v>34672</v>
       </c>
       <c r="B44" t="n">
-        <v>131480</v>
+        <v>162241</v>
       </c>
       <c r="C44" t="s">
         <v>343</v>
@@ -7269,7 +7269,7 @@
         <v>34672</v>
       </c>
       <c r="B45" t="n">
-        <v>131481</v>
+        <v>162242</v>
       </c>
       <c r="C45" t="s">
         <v>350</v>
@@ -7334,7 +7334,7 @@
         <v>34672</v>
       </c>
       <c r="B46" t="n">
-        <v>131482</v>
+        <v>162243</v>
       </c>
       <c r="C46" t="s">
         <v>356</v>
@@ -7395,7 +7395,7 @@
         <v>34672</v>
       </c>
       <c r="B47" t="n">
-        <v>131483</v>
+        <v>162244</v>
       </c>
       <c r="C47" t="s">
         <v>363</v>
@@ -7527,7 +7527,7 @@
         <v>34672</v>
       </c>
       <c r="B49" t="n">
-        <v>131484</v>
+        <v>162245</v>
       </c>
       <c r="C49" t="s">
         <v>377</v>
@@ -7592,7 +7592,7 @@
         <v>34672</v>
       </c>
       <c r="B50" t="n">
-        <v>131485</v>
+        <v>162246</v>
       </c>
       <c r="C50" t="s">
         <v>383</v>
@@ -7787,7 +7787,7 @@
         <v>34672</v>
       </c>
       <c r="B53" t="n">
-        <v>131486</v>
+        <v>162247</v>
       </c>
       <c r="C53" t="s">
         <v>402</v>
@@ -7848,7 +7848,7 @@
         <v>34672</v>
       </c>
       <c r="B54" t="n">
-        <v>131487</v>
+        <v>162248</v>
       </c>
       <c r="C54" t="s">
         <v>409</v>
@@ -7913,7 +7913,7 @@
         <v>34672</v>
       </c>
       <c r="B55" t="n">
-        <v>131488</v>
+        <v>162249</v>
       </c>
       <c r="C55" t="s">
         <v>416</v>
@@ -7980,7 +7980,7 @@
         <v>34672</v>
       </c>
       <c r="B56" t="n">
-        <v>131489</v>
+        <v>162250</v>
       </c>
       <c r="C56" t="s">
         <v>422</v>
@@ -8102,7 +8102,7 @@
         <v>34672</v>
       </c>
       <c r="B58" t="n">
-        <v>131490</v>
+        <v>162251</v>
       </c>
       <c r="C58" t="s">
         <v>436</v>
@@ -8169,7 +8169,7 @@
         <v>34672</v>
       </c>
       <c r="B59" t="n">
-        <v>131491</v>
+        <v>162252</v>
       </c>
       <c r="C59" t="s">
         <v>444</v>
@@ -8236,7 +8236,7 @@
         <v>34672</v>
       </c>
       <c r="B60" t="n">
-        <v>131492</v>
+        <v>162253</v>
       </c>
       <c r="C60" t="s">
         <v>450</v>
@@ -8358,7 +8358,7 @@
         <v>34672</v>
       </c>
       <c r="B62" t="n">
-        <v>131493</v>
+        <v>162254</v>
       </c>
       <c r="C62" t="s">
         <v>462</v>
@@ -8423,7 +8423,7 @@
         <v>34672</v>
       </c>
       <c r="B63" t="n">
-        <v>131494</v>
+        <v>162255</v>
       </c>
       <c r="C63" t="s">
         <v>472</v>
@@ -8494,7 +8494,7 @@
         <v>34672</v>
       </c>
       <c r="B64" t="n">
-        <v>131495</v>
+        <v>162256</v>
       </c>
       <c r="C64" t="s">
         <v>481</v>
@@ -8559,7 +8559,7 @@
         <v>34672</v>
       </c>
       <c r="B65" t="n">
-        <v>131496</v>
+        <v>162257</v>
       </c>
       <c r="C65" t="s">
         <v>490</v>
@@ -8981,7 +8981,7 @@
         <v>34672</v>
       </c>
       <c r="B71" t="n">
-        <v>131497</v>
+        <v>162258</v>
       </c>
       <c r="C71" t="s">
         <v>541</v>
@@ -9052,7 +9052,7 @@
         <v>34672</v>
       </c>
       <c r="B72" t="n">
-        <v>131498</v>
+        <v>162259</v>
       </c>
       <c r="C72" t="s">
         <v>548</v>
@@ -9186,7 +9186,7 @@
         <v>34672</v>
       </c>
       <c r="B74" t="n">
-        <v>131499</v>
+        <v>162260</v>
       </c>
       <c r="C74" t="s">
         <v>564</v>
@@ -9257,7 +9257,7 @@
         <v>34672</v>
       </c>
       <c r="B75" t="n">
-        <v>131500</v>
+        <v>162261</v>
       </c>
       <c r="C75" t="s">
         <v>573</v>
@@ -9328,7 +9328,7 @@
         <v>34672</v>
       </c>
       <c r="B76" t="n">
-        <v>131501</v>
+        <v>162262</v>
       </c>
       <c r="C76" t="s">
         <v>582</v>
@@ -9397,7 +9397,7 @@
         <v>34672</v>
       </c>
       <c r="B77" t="n">
-        <v>131502</v>
+        <v>162263</v>
       </c>
       <c r="C77" t="s">
         <v>589</v>
@@ -9697,7 +9697,7 @@
         <v>34672</v>
       </c>
       <c r="B81" t="n">
-        <v>131503</v>
+        <v>162264</v>
       </c>
       <c r="C81" t="s">
         <v>628</v>
@@ -9772,7 +9772,7 @@
         <v>34672</v>
       </c>
       <c r="B82" t="n">
-        <v>131504</v>
+        <v>162265</v>
       </c>
       <c r="C82" t="s">
         <v>637</v>
@@ -9837,7 +9837,7 @@
         <v>34672</v>
       </c>
       <c r="B83" t="n">
-        <v>131505</v>
+        <v>162266</v>
       </c>
       <c r="C83" t="s">
         <v>646</v>
@@ -9912,7 +9912,7 @@
         <v>34672</v>
       </c>
       <c r="B84" t="n">
-        <v>131506</v>
+        <v>162267</v>
       </c>
       <c r="C84" t="s">
         <v>655</v>
@@ -9977,7 +9977,7 @@
         <v>34672</v>
       </c>
       <c r="B85" t="n">
-        <v>131507</v>
+        <v>162268</v>
       </c>
       <c r="C85" t="s">
         <v>664</v>
@@ -10050,7 +10050,7 @@
         <v>34672</v>
       </c>
       <c r="B86" t="n">
-        <v>131508</v>
+        <v>162269</v>
       </c>
       <c r="C86" t="s">
         <v>673</v>
@@ -10125,7 +10125,7 @@
         <v>34672</v>
       </c>
       <c r="B87" t="n">
-        <v>131509</v>
+        <v>162270</v>
       </c>
       <c r="C87" t="s">
         <v>683</v>
@@ -10200,7 +10200,7 @@
         <v>34672</v>
       </c>
       <c r="B88" t="n">
-        <v>131510</v>
+        <v>162271</v>
       </c>
       <c r="C88" t="s">
         <v>692</v>
@@ -10275,7 +10275,7 @@
         <v>34672</v>
       </c>
       <c r="B89" t="n">
-        <v>131511</v>
+        <v>162272</v>
       </c>
       <c r="C89" t="s">
         <v>701</v>
@@ -10425,7 +10425,7 @@
         <v>34672</v>
       </c>
       <c r="B91" t="n">
-        <v>131512</v>
+        <v>162273</v>
       </c>
       <c r="C91" t="s">
         <v>720</v>
@@ -10500,7 +10500,7 @@
         <v>34672</v>
       </c>
       <c r="B92" t="n">
-        <v>131513</v>
+        <v>162274</v>
       </c>
       <c r="C92" t="s">
         <v>727</v>
@@ -10571,7 +10571,7 @@
         <v>34672</v>
       </c>
       <c r="B93" t="n">
-        <v>131514</v>
+        <v>162275</v>
       </c>
       <c r="C93" t="s">
         <v>736</v>
@@ -10646,7 +10646,7 @@
         <v>34672</v>
       </c>
       <c r="B94" t="n">
-        <v>131515</v>
+        <v>162276</v>
       </c>
       <c r="C94" t="s">
         <v>746</v>
@@ -10721,7 +10721,7 @@
         <v>34672</v>
       </c>
       <c r="B95" t="n">
-        <v>131516</v>
+        <v>162277</v>
       </c>
       <c r="C95" t="s">
         <v>755</v>
@@ -10796,7 +10796,7 @@
         <v>34672</v>
       </c>
       <c r="B96" t="n">
-        <v>131460</v>
+        <v>131478</v>
       </c>
       <c r="C96" t="s">
         <v>159</v>
@@ -10946,7 +10946,7 @@
         <v>34672</v>
       </c>
       <c r="B98" t="n">
-        <v>131517</v>
+        <v>162278</v>
       </c>
       <c r="C98" t="s">
         <v>779</v>
@@ -11021,7 +11021,7 @@
         <v>34672</v>
       </c>
       <c r="B99" t="n">
-        <v>131518</v>
+        <v>162279</v>
       </c>
       <c r="C99" t="s">
         <v>788</v>
@@ -11096,7 +11096,7 @@
         <v>34672</v>
       </c>
       <c r="B100" t="n">
-        <v>131519</v>
+        <v>162280</v>
       </c>
       <c r="C100" t="s">
         <v>796</v>
@@ -11313,7 +11313,7 @@
         <v>34672</v>
       </c>
       <c r="B103" t="n">
-        <v>131520</v>
+        <v>162281</v>
       </c>
       <c r="C103" t="s">
         <v>823</v>
@@ -11388,7 +11388,7 @@
         <v>34672</v>
       </c>
       <c r="B104" t="n">
-        <v>131521</v>
+        <v>162282</v>
       </c>
       <c r="C104" t="s">
         <v>830</v>
@@ -11463,7 +11463,7 @@
         <v>34672</v>
       </c>
       <c r="B105" t="n">
-        <v>131522</v>
+        <v>162283</v>
       </c>
       <c r="C105" t="s">
         <v>840</v>
@@ -11538,7 +11538,7 @@
         <v>34672</v>
       </c>
       <c r="B106" t="n">
-        <v>131523</v>
+        <v>134757</v>
       </c>
       <c r="C106" t="s">
         <v>848</v>
@@ -11603,7 +11603,7 @@
         <v>34672</v>
       </c>
       <c r="B107" t="n">
-        <v>131524</v>
+        <v>162284</v>
       </c>
       <c r="C107" t="s">
         <v>857</v>
@@ -11678,7 +11678,7 @@
         <v>34672</v>
       </c>
       <c r="B108" t="n">
-        <v>131525</v>
+        <v>162285</v>
       </c>
       <c r="C108" t="s">
         <v>867</v>
@@ -11828,7 +11828,7 @@
         <v>34672</v>
       </c>
       <c r="B110" t="n">
-        <v>131526</v>
+        <v>162286</v>
       </c>
       <c r="C110" t="s">
         <v>882</v>
@@ -11903,7 +11903,7 @@
         <v>34672</v>
       </c>
       <c r="B111" t="n">
-        <v>131527</v>
+        <v>162287</v>
       </c>
       <c r="C111" t="s">
         <v>891</v>
@@ -11978,7 +11978,7 @@
         <v>34672</v>
       </c>
       <c r="B112" t="n">
-        <v>131528</v>
+        <v>162288</v>
       </c>
       <c r="C112" t="s">
         <v>899</v>
@@ -12120,7 +12120,7 @@
         <v>34672</v>
       </c>
       <c r="B114" t="n">
-        <v>131529</v>
+        <v>162289</v>
       </c>
       <c r="C114" t="s">
         <v>911</v>
@@ -12408,7 +12408,7 @@
         <v>34672</v>
       </c>
       <c r="B118" t="n">
-        <v>131530</v>
+        <v>162290</v>
       </c>
       <c r="C118" t="s">
         <v>941</v>
@@ -12479,7 +12479,7 @@
         <v>34672</v>
       </c>
       <c r="B119" t="n">
-        <v>131531</v>
+        <v>162291</v>
       </c>
       <c r="C119" t="s">
         <v>948</v>
@@ -12696,7 +12696,7 @@
         <v>34672</v>
       </c>
       <c r="B122" t="n">
-        <v>131532</v>
+        <v>162292</v>
       </c>
       <c r="C122" t="s">
         <v>969</v>
@@ -12771,7 +12771,7 @@
         <v>34672</v>
       </c>
       <c r="B123" t="n">
-        <v>131533</v>
+        <v>162293</v>
       </c>
       <c r="C123" t="s">
         <v>979</v>
@@ -12842,7 +12842,7 @@
         <v>34672</v>
       </c>
       <c r="B124" t="n">
-        <v>131534</v>
+        <v>162294</v>
       </c>
       <c r="C124" t="s">
         <v>985</v>
@@ -12913,7 +12913,7 @@
         <v>34672</v>
       </c>
       <c r="B125" t="n">
-        <v>131535</v>
+        <v>162295</v>
       </c>
       <c r="C125" t="s">
         <v>991</v>
@@ -12984,7 +12984,7 @@
         <v>34672</v>
       </c>
       <c r="B126" t="n">
-        <v>131536</v>
+        <v>162296</v>
       </c>
       <c r="C126" t="s">
         <v>998</v>
@@ -13051,7 +13051,7 @@
         <v>34672</v>
       </c>
       <c r="B127" t="n">
-        <v>131537</v>
+        <v>162297</v>
       </c>
       <c r="C127" t="s">
         <v>1005</v>
@@ -13276,7 +13276,7 @@
         <v>34672</v>
       </c>
       <c r="B130" t="n">
-        <v>131538</v>
+        <v>162298</v>
       </c>
       <c r="C130" t="s">
         <v>1033</v>
@@ -13351,7 +13351,7 @@
         <v>34672</v>
       </c>
       <c r="B131" t="n">
-        <v>131539</v>
+        <v>162299</v>
       </c>
       <c r="C131" t="s">
         <v>1043</v>
@@ -13426,7 +13426,7 @@
         <v>34672</v>
       </c>
       <c r="B132" t="n">
-        <v>131540</v>
+        <v>162300</v>
       </c>
       <c r="C132" t="s">
         <v>1052</v>
@@ -13497,7 +13497,7 @@
         <v>34672</v>
       </c>
       <c r="B133" t="n">
-        <v>131541</v>
+        <v>162301</v>
       </c>
       <c r="C133" t="s">
         <v>1059</v>
@@ -13639,7 +13639,7 @@
         <v>34672</v>
       </c>
       <c r="B135" t="n">
-        <v>131542</v>
+        <v>162302</v>
       </c>
       <c r="C135" t="s">
         <v>1074</v>
@@ -13710,7 +13710,7 @@
         <v>34672</v>
       </c>
       <c r="B136" t="n">
-        <v>131543</v>
+        <v>162303</v>
       </c>
       <c r="C136" t="s">
         <v>1081</v>
@@ -13781,7 +13781,7 @@
         <v>34672</v>
       </c>
       <c r="B137" t="n">
-        <v>131544</v>
+        <v>162304</v>
       </c>
       <c r="C137" t="s">
         <v>1088</v>
@@ -13852,7 +13852,7 @@
         <v>34672</v>
       </c>
       <c r="B138" t="n">
-        <v>131545</v>
+        <v>162305</v>
       </c>
       <c r="C138" t="s">
         <v>1094</v>
@@ -13923,7 +13923,7 @@
         <v>34672</v>
       </c>
       <c r="B139" t="n">
-        <v>131546</v>
+        <v>162306</v>
       </c>
       <c r="C139" t="s">
         <v>1100</v>
@@ -13990,7 +13990,7 @@
         <v>34672</v>
       </c>
       <c r="B140" t="n">
-        <v>131547</v>
+        <v>162307</v>
       </c>
       <c r="C140" t="s">
         <v>1106</v>
@@ -14057,7 +14057,7 @@
         <v>34672</v>
       </c>
       <c r="B141" t="n">
-        <v>131548</v>
+        <v>162308</v>
       </c>
       <c r="C141" t="s">
         <v>1113</v>
@@ -14191,7 +14191,7 @@
         <v>34672</v>
       </c>
       <c r="B143" t="n">
-        <v>131549</v>
+        <v>162309</v>
       </c>
       <c r="C143" t="s">
         <v>1127</v>
@@ -14258,7 +14258,7 @@
         <v>34672</v>
       </c>
       <c r="B144" t="n">
-        <v>131550</v>
+        <v>162310</v>
       </c>
       <c r="C144" t="s">
         <v>1135</v>
@@ -14325,7 +14325,7 @@
         <v>34672</v>
       </c>
       <c r="B145" t="n">
-        <v>131551</v>
+        <v>162311</v>
       </c>
       <c r="C145" t="s">
         <v>1141</v>
@@ -14392,7 +14392,7 @@
         <v>34672</v>
       </c>
       <c r="B146" t="n">
-        <v>131552</v>
+        <v>162312</v>
       </c>
       <c r="C146" t="s">
         <v>1147</v>
@@ -14463,7 +14463,7 @@
         <v>34672</v>
       </c>
       <c r="B147" t="n">
-        <v>131553</v>
+        <v>162313</v>
       </c>
       <c r="C147" t="s">
         <v>1156</v>
@@ -14530,7 +14530,7 @@
         <v>34672</v>
       </c>
       <c r="B148" t="n">
-        <v>131554</v>
+        <v>162314</v>
       </c>
       <c r="C148" t="s">
         <v>1164</v>
@@ -14597,7 +14597,7 @@
         <v>34672</v>
       </c>
       <c r="B149" t="n">
-        <v>131555</v>
+        <v>162315</v>
       </c>
       <c r="C149" t="s">
         <v>1171</v>
@@ -14672,7 +14672,7 @@
         <v>34672</v>
       </c>
       <c r="B150" t="n">
-        <v>131556</v>
+        <v>162316</v>
       </c>
       <c r="C150" t="s">
         <v>1180</v>
@@ -14814,7 +14814,7 @@
         <v>34672</v>
       </c>
       <c r="B152" t="n">
-        <v>131557</v>
+        <v>162317</v>
       </c>
       <c r="C152" t="s">
         <v>1193</v>
@@ -14885,7 +14885,7 @@
         <v>34672</v>
       </c>
       <c r="B153" t="n">
-        <v>131558</v>
+        <v>162318</v>
       </c>
       <c r="C153" t="s">
         <v>1200</v>
@@ -14954,7 +14954,7 @@
         <v>34672</v>
       </c>
       <c r="B154" t="n">
-        <v>131559</v>
+        <v>162319</v>
       </c>
       <c r="C154" t="s">
         <v>1207</v>
@@ -15096,7 +15096,7 @@
         <v>34672</v>
       </c>
       <c r="B156" t="n">
-        <v>131560</v>
+        <v>162320</v>
       </c>
       <c r="C156" t="s">
         <v>1219</v>
@@ -15167,7 +15167,7 @@
         <v>34672</v>
       </c>
       <c r="B157" t="n">
-        <v>131561</v>
+        <v>162321</v>
       </c>
       <c r="C157" t="s">
         <v>1227</v>
@@ -15238,7 +15238,7 @@
         <v>34672</v>
       </c>
       <c r="B158" t="n">
-        <v>131562</v>
+        <v>162322</v>
       </c>
       <c r="C158" t="s">
         <v>1234</v>
@@ -15309,7 +15309,7 @@
         <v>34672</v>
       </c>
       <c r="B159" t="n">
-        <v>131563</v>
+        <v>162323</v>
       </c>
       <c r="C159" t="s">
         <v>1242</v>
@@ -15380,7 +15380,7 @@
         <v>34672</v>
       </c>
       <c r="B160" t="n">
-        <v>131564</v>
+        <v>162324</v>
       </c>
       <c r="C160" t="s">
         <v>1250</v>
@@ -15451,7 +15451,7 @@
         <v>34672</v>
       </c>
       <c r="B161" t="n">
-        <v>131565</v>
+        <v>162325</v>
       </c>
       <c r="C161" t="s">
         <v>1257</v>
@@ -15522,7 +15522,7 @@
         <v>34672</v>
       </c>
       <c r="B162" t="n">
-        <v>131566</v>
+        <v>162326</v>
       </c>
       <c r="C162" t="s">
         <v>1264</v>
@@ -15593,7 +15593,7 @@
         <v>34672</v>
       </c>
       <c r="B163" t="n">
-        <v>131567</v>
+        <v>162327</v>
       </c>
       <c r="C163" t="s">
         <v>1272</v>
@@ -15664,7 +15664,7 @@
         <v>34672</v>
       </c>
       <c r="B164" t="n">
-        <v>131568</v>
+        <v>162328</v>
       </c>
       <c r="C164" t="s">
         <v>1279</v>
@@ -15729,7 +15729,7 @@
         <v>34672</v>
       </c>
       <c r="B165" t="n">
-        <v>131569</v>
+        <v>162329</v>
       </c>
       <c r="C165" t="s">
         <v>1284</v>
